--- a/input/industry/Specific_Consumption.xlsx
+++ b/input/industry/Specific_Consumption.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB77EE9-D71F-4872-8100-AB056C06E0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376C015E-A97C-44EA-B43A-3256E249FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="2790" windowWidth="19185" windowHeight="10200" firstSheet="5" activeTab="7" xr2:uid="{D381B1E2-FDBF-4F26-BF70-907299A84E26}"/>
+    <workbookView xWindow="35385" yWindow="-5205" windowWidth="18285" windowHeight="10275" firstSheet="5" activeTab="7" xr2:uid="{D381B1E2-FDBF-4F26-BF70-907299A84E26}"/>
   </bookViews>
   <sheets>
     <sheet name="steel" sheetId="9" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="alu_prim" sheetId="3" r:id="rId5"/>
     <sheet name="alu_sec" sheetId="17" r:id="rId6"/>
     <sheet name="copper_prim" sheetId="38" r:id="rId7"/>
-    <sheet name="copper_sec" sheetId="39" r:id="rId8"/>
-    <sheet name="cement" sheetId="5" r:id="rId9"/>
-    <sheet name="glass" sheetId="11" r:id="rId10"/>
+    <sheet name="glass" sheetId="11" r:id="rId8"/>
+    <sheet name="copper_sec" sheetId="39" r:id="rId9"/>
+    <sheet name="cement" sheetId="5" r:id="rId10"/>
     <sheet name="glass_detail" sheetId="6" r:id="rId11"/>
     <sheet name="paper" sheetId="10" r:id="rId12"/>
     <sheet name="chlorine" sheetId="12" r:id="rId13"/>
@@ -980,14 +980,14 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Data_const"/>
+      <sheetName val="Data"/>
+      <sheetName val="Info"/>
+      <sheetName val="Data_2007_per_process"/>
       <sheetName val="Data_collection"/>
-      <sheetName val="Data_year"/>
-      <sheetName val="Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -1013,7 +1013,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1286,9 +1286,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1335,528 +1335,393 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>3.05</v>
+      </c>
+      <c r="C2">
+        <f>12.38/100*B2</f>
+        <v>0.37758999999999998</v>
+      </c>
+      <c r="D2">
+        <f>87.62/100*B2</f>
+        <v>2.6724100000000002</v>
+      </c>
+      <c r="E2">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
-        <v>9.0660859663798394</v>
-      </c>
-      <c r="C2">
-        <v>1.5833107034555201</v>
-      </c>
-      <c r="D2">
-        <v>7.482775262924326</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>3.4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">12.38/100*B3</f>
+        <v>0.42092000000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="1">87.62/100*B3</f>
+        <v>2.9790800000000002</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>9.7237367878319159</v>
-      </c>
-      <c r="C3">
-        <v>1.380685253931426</v>
-      </c>
-      <c r="D3">
-        <v>8.3430515339004891</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
       <c r="B4">
-        <v>7.0720665531551461</v>
+        <v>3.4</v>
       </c>
       <c r="C4">
-        <v>2.4479405419715552</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D4">
-        <v>4.6241260111835896</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>3.25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.40235000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.8476500000000002</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>7.5230587222362084</v>
-      </c>
-      <c r="C5">
-        <f>(glass_detail!H2*[1]Data_year!$B$2+glass_detail!I2*[1]Data_year!$C$2+glass_detail!J2*[1]Data_year!$D$2+glass_detail!K2*[1]Data_year!$E$2+glass_detail!L2*[1]Data_year!$F$2+glass_detail!M2*[1]Data_year!$G$2)/[1]Data_year!$H$2</f>
-        <v>1.389896080003405</v>
-      </c>
-      <c r="D5">
-        <v>6.1331626422328034</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
       <c r="B6">
-        <v>11.901192052187749</v>
-      </c>
-      <c r="C6">
-        <v>2.9658266763981702</v>
-      </c>
-      <c r="D6">
-        <v>8.9353653757895817</v>
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="19">
+        <f>3.8*3600/34000</f>
+        <v>0.40235294117647058</v>
+      </c>
+      <c r="D6" s="19">
+        <f>26.9*3600/34000</f>
+        <v>2.848235294117647</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.0439687205015487</v>
+        <v>3.75</v>
       </c>
       <c r="C7">
-        <v>1.3377337885316221</v>
+        <f t="shared" si="0"/>
+        <v>0.46425000000000005</v>
       </c>
       <c r="D7">
-        <v>5.7062349319699264</v>
+        <f t="shared" si="1"/>
+        <v>3.2857500000000002</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>7.5701241071609964</v>
+        <v>3.4</v>
       </c>
       <c r="C8">
-        <v>1.294389705186046</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D8">
-        <v>6.2757344019749493</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.1921937844927015</v>
+        <v>3.4</v>
       </c>
       <c r="C9">
-        <v>1.4449081059447679</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D9">
-        <v>6.7472856785479358</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>9.974738004657695</v>
+        <v>3.25</v>
       </c>
       <c r="C10">
-        <v>2.1473226309310052</v>
+        <f t="shared" si="0"/>
+        <v>0.40235000000000004</v>
       </c>
       <c r="D10">
-        <v>7.8274153737266872</v>
+        <f t="shared" si="1"/>
+        <v>2.8476500000000002</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>7.1144662893787514</v>
+        <v>3.1</v>
       </c>
       <c r="C11">
-        <v>1.126689552739994</v>
+        <f t="shared" si="0"/>
+        <v>0.38378000000000001</v>
       </c>
       <c r="D11">
-        <v>5.9877767366387573</v>
+        <f t="shared" si="1"/>
+        <v>2.7162200000000003</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>13.7</v>
+        <v>3.4</v>
       </c>
       <c r="C12">
-        <v>3.3839000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D12">
-        <v>10.3161</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="C13">
-        <v>3.375</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D13">
-        <v>4.125</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="C14">
-        <v>0.99199999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D14">
-        <v>5.4080000000000004</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>8.92406441312548</v>
+        <v>3.4</v>
       </c>
       <c r="C15">
-        <v>1.902495800482382</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D15">
-        <v>7.0215686126430992</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>7.9022755064403132</v>
+        <v>3.2</v>
       </c>
       <c r="C16">
-        <v>1.6852027607039981</v>
+        <f t="shared" si="0"/>
+        <v>0.39616000000000007</v>
       </c>
       <c r="D16">
-        <v>6.2170727457363153</v>
+        <f t="shared" si="1"/>
+        <v>2.8038400000000006</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>6.8439162245219309</v>
+        <v>3.4</v>
       </c>
       <c r="C17">
-        <v>1.1037901930135849</v>
+        <f t="shared" si="0"/>
+        <v>0.42092000000000002</v>
       </c>
       <c r="D17">
-        <v>5.7401260315083462</v>
+        <f t="shared" si="1"/>
+        <v>2.9790800000000002</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>8.3327287347608117</v>
-      </c>
-      <c r="C18">
-        <v>1.176503121178871</v>
-      </c>
-      <c r="D18">
-        <v>7.1562256135819426</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>7.666374219387877</v>
-      </c>
-      <c r="C19">
-        <v>3.3595323967912831</v>
-      </c>
-      <c r="D19">
-        <v>4.3068418225965939</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>9.3820538420672701</v>
-      </c>
-      <c r="C20">
-        <v>2.3591306267040348</v>
-      </c>
-      <c r="D20">
-        <v>7.0229232153632344</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>8.6475104362617365</v>
-      </c>
-      <c r="C21">
-        <v>2.2486530696171441</v>
-      </c>
-      <c r="D21">
-        <v>6.3988573666445934</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>7.8490712494216179</v>
-      </c>
-      <c r="C22">
-        <v>1.9109730876951661</v>
-      </c>
-      <c r="D22">
-        <v>5.9380981617264519</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>7.2928768674980464</v>
-      </c>
-      <c r="C23">
-        <v>1.277880252591022</v>
-      </c>
-      <c r="D23">
-        <v>6.0149966149070249</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>6.4</v>
-      </c>
-      <c r="C24">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D24">
-        <v>5.4080000000000004</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>7.5230587222362084</v>
-      </c>
-      <c r="C25">
-        <v>1.389896080003405</v>
-      </c>
-      <c r="D25">
-        <v>6.1331626422328034</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1866,12 +1731,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +1869,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +1940,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2011,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2082,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2288,7 +2153,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2224,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2441,9 +2306,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2500,9 +2365,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -2575,9 +2440,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2633,9 +2498,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -2709,9 +2574,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2767,9 +2632,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -2845,9 +2710,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2903,9 +2768,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2947,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -2979,9 +2844,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3035,9 +2900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +2922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3093,9 +2958,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +2980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3137,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -3169,9 +3034,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3227,9 +3092,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3271,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -3305,15 +3170,15 @@
       <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
@@ -3322,7 +3187,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3342,7 +3207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3353,7 +3218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3370,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>89</v>
       </c>
@@ -3379,7 +3244,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -3419,7 +3284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>92</v>
       </c>
@@ -3430,7 +3295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>97</v>
       </c>
@@ -3444,7 +3309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>104</v>
       </c>
@@ -3461,7 +3326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>107</v>
       </c>
@@ -3473,7 +3338,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>114</v>
       </c>
@@ -3484,10 +3349,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>109</v>
       </c>
@@ -3496,7 +3361,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3513,7 +3378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>110</v>
       </c>
@@ -3522,7 +3387,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3539,10 +3404,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -3556,7 +3421,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>92</v>
       </c>
@@ -3570,7 +3435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>124</v>
       </c>
@@ -3579,7 +3444,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3596,12 +3461,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3614,10 +3479,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -3634,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>92</v>
       </c>
@@ -3651,7 +3516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>137</v>
       </c>
@@ -3660,7 +3525,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3677,7 +3542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -3694,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>92</v>
       </c>
@@ -3708,12 +3573,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>230</v>
       </c>
@@ -3722,7 +3587,7 @@
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3739,7 +3604,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C43" s="12" t="s">
         <v>143</v>
       </c>
@@ -3748,12 +3613,12 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C44" s="12"/>
       <c r="D44" s="1"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3770,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -3787,12 +3652,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>231</v>
       </c>
@@ -3801,7 +3666,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3818,7 +3683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C50" s="12" t="s">
         <v>143</v>
       </c>
@@ -3827,12 +3692,12 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -3849,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>92</v>
       </c>
@@ -3866,12 +3731,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>158</v>
       </c>
@@ -3880,7 +3745,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3894,12 +3759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -3917,7 +3782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>162</v>
       </c>
@@ -3925,7 +3790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>166</v>
       </c>
@@ -3934,7 +3799,7 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3951,7 +3816,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="s">
         <v>167</v>
       </c>
@@ -3965,10 +3830,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="17"/>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -3982,7 +3847,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>162</v>
       </c>
@@ -3990,10 +3855,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>176</v>
       </c>
@@ -4002,7 +3867,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -4019,7 +3884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B70" s="17" t="s">
         <v>167</v>
       </c>
@@ -4030,10 +3895,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -4047,10 +3912,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B73" s="17"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>186</v>
       </c>
@@ -4059,7 +3924,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -4076,10 +3941,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B76" s="17"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -4090,10 +3955,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B78" s="17"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -4104,7 +3969,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>193</v>
       </c>
@@ -4112,10 +3977,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="21"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4132,10 +3997,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C83" s="21"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>198</v>
       </c>
@@ -4144,7 +4009,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -4161,10 +4026,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C86" s="21"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>197</v>
       </c>
@@ -4173,7 +4038,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -4187,10 +4052,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="21"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -4201,7 +4066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>193</v>
       </c>
@@ -4209,10 +4074,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>202</v>
       </c>
@@ -4221,7 +4086,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -4238,10 +4103,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C95" s="21"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>50</v>
       </c>
@@ -4250,7 +4115,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -4267,10 +4132,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B98" s="18"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -4281,7 +4146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -4295,7 +4160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>92</v>
       </c>
@@ -4306,10 +4171,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>216</v>
       </c>
@@ -4318,7 +4183,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -4335,10 +4200,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -4353,10 +4218,10 @@
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>90</v>
       </c>
@@ -4373,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>92</v>
       </c>
@@ -4387,10 +4252,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>210</v>
       </c>
@@ -4399,7 +4264,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="14"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -4416,10 +4281,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -4436,7 +4301,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>92</v>
       </c>
@@ -4450,7 +4315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
         <v>226</v>
       </c>
@@ -4459,7 +4324,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -4476,10 +4341,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B121" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B124" s="4"/>
     </row>
   </sheetData>
@@ -4534,9 +4399,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4590,9 +4455,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4612,7 +4477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4645,9 +4510,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4700,9 +4565,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4722,7 +4587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4756,9 +4621,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4814,9 +4679,9 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4836,7 +4701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>229</v>
       </c>
@@ -4857,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4892,9 +4757,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +4779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4948,9 +4813,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +4835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5004,9 +4869,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +4891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5060,9 +4925,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +4947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5116,9 +4981,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5172,9 +5037,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5228,9 +5093,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5250,7 +5115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5284,9 +5149,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5306,7 +5171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5340,9 +5205,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5362,7 +5227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5396,9 +5261,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +5283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5452,9 +5317,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5508,9 +5373,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5530,7 +5395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5564,9 +5429,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5586,7 +5451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5620,9 +5485,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5642,7 +5507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5676,9 +5541,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -5686,7 +5551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -5694,27 +5559,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5722,42 +5587,42 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -5777,9 +5642,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -5790,7 +5655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>4.184*10^-3</f>
         <v>4.1840000000000002E-3</v>
@@ -5815,12 +5680,12 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5843,7 +5708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5879,12 +5744,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5907,7 +5772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5943,9 +5808,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +5833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6001,78 +5866,544 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F92C3B-022D-4400-9CCF-E3B13BD30224}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>9.0660859663798394</v>
+      </c>
+      <c r="C2">
+        <v>1.5833107034555201</v>
+      </c>
+      <c r="D2">
+        <v>7.482775262924326</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>9.7237367878319159</v>
+      </c>
+      <c r="C3">
+        <v>1.380685253931426</v>
+      </c>
+      <c r="D3">
+        <v>8.3430515339004891</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>7.0720665531551461</v>
+      </c>
+      <c r="C4">
+        <v>2.4479405419715552</v>
+      </c>
+      <c r="D4">
+        <v>4.6241260111835896</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7.5230587222362084</v>
+      </c>
+      <c r="C5">
+        <f>(glass_detail!H2*[1]Data_2007_per_process!$B$2+glass_detail!I2*[1]Data_2007_per_process!$C$2+glass_detail!J2*[1]Data_2007_per_process!$D$2+glass_detail!K2*[1]Data_2007_per_process!$E$2+glass_detail!L2*[1]Data_2007_per_process!$F$2+glass_detail!M2*[1]Data_2007_per_process!$G$2)/[1]Data_2007_per_process!$H$2</f>
+        <v>1.389896080003405</v>
+      </c>
+      <c r="D5">
+        <v>6.1331626422328034</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>11.901192052187749</v>
+      </c>
+      <c r="C6">
+        <v>2.9658266763981702</v>
+      </c>
+      <c r="D6">
+        <v>8.9353653757895817</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>7.0439687205015487</v>
+      </c>
+      <c r="C7">
+        <v>1.3377337885316221</v>
+      </c>
+      <c r="D7">
+        <v>5.7062349319699264</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.5701241071609964</v>
+      </c>
+      <c r="C8">
+        <v>1.294389705186046</v>
+      </c>
+      <c r="D8">
+        <v>6.2757344019749493</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8.1921937844927015</v>
+      </c>
+      <c r="C9">
+        <v>1.4449081059447679</v>
+      </c>
+      <c r="D9">
+        <v>6.7472856785479358</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>9.974738004657695</v>
+      </c>
+      <c r="C10">
+        <v>2.1473226309310052</v>
+      </c>
+      <c r="D10">
+        <v>7.8274153737266872</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7.1144662893787514</v>
+      </c>
+      <c r="C11">
+        <v>1.126689552739994</v>
+      </c>
+      <c r="D11">
+        <v>5.9877767366387573</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>13.7</v>
+      </c>
+      <c r="C12">
+        <v>3.3839000000000001</v>
+      </c>
+      <c r="D12">
+        <v>10.3161</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>7.5</v>
+      </c>
+      <c r="C13">
+        <v>3.375</v>
+      </c>
+      <c r="D13">
+        <v>4.125</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>6.4</v>
+      </c>
+      <c r="C14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D14">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>8.92406441312548</v>
+      </c>
+      <c r="C15">
+        <v>1.902495800482382</v>
+      </c>
+      <c r="D15">
+        <v>7.0215686126430992</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>7.9022755064403132</v>
+      </c>
+      <c r="C16">
+        <v>1.6852027607039981</v>
+      </c>
+      <c r="D16">
+        <v>6.2170727457363153</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>6.8439162245219309</v>
+      </c>
+      <c r="C17">
+        <v>1.1037901930135849</v>
+      </c>
+      <c r="D17">
+        <v>5.7401260315083462</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>8.3327287347608117</v>
+      </c>
+      <c r="C18">
+        <v>1.176503121178871</v>
+      </c>
+      <c r="D18">
+        <v>7.1562256135819426</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>7.666374219387877</v>
+      </c>
+      <c r="C19">
+        <v>3.3595323967912831</v>
+      </c>
+      <c r="D19">
+        <v>4.3068418225965939</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>9.3820538420672701</v>
+      </c>
+      <c r="C20">
+        <v>2.3591306267040348</v>
+      </c>
+      <c r="D20">
+        <v>7.0229232153632344</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>8.6475104362617365</v>
+      </c>
+      <c r="C21">
+        <v>2.2486530696171441</v>
+      </c>
+      <c r="D21">
+        <v>6.3988573666445934</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>7.8490712494216179</v>
+      </c>
+      <c r="C22">
+        <v>1.9109730876951661</v>
+      </c>
+      <c r="D22">
+        <v>5.9380981617264519</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>7.2928768674980464</v>
+      </c>
+      <c r="C23">
+        <v>1.277880252591022</v>
+      </c>
+      <c r="D23">
+        <v>6.0149966149070249</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>6.4</v>
+      </c>
+      <c r="C24">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D24">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f>C2+D2</f>
-        <v>19.22</v>
-      </c>
-      <c r="C2">
-        <f>2.3+5.4</f>
-        <v>7.7</v>
-      </c>
-      <c r="D2">
-        <f>3.96+7.56</f>
-        <v>11.52</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B25">
+        <v>7.5230587222362084</v>
+      </c>
+      <c r="C25">
+        <v>1.389896080003405</v>
+      </c>
+      <c r="D25">
+        <v>6.1331626422328034</v>
+      </c>
+      <c r="E25">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F92C3B-022D-4400-9CCF-E3B13BD30224}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6091,363 +6422,34 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3.05</v>
+        <f>C2+D2</f>
+        <v>19.22</v>
       </c>
       <c r="C2">
-        <f>12.38/100*B2</f>
-        <v>0.37758999999999998</v>
+        <f>2.3+5.4</f>
+        <v>7.7</v>
       </c>
       <c r="D2">
-        <f>87.62/100*B2</f>
-        <v>2.6724100000000002</v>
-      </c>
-      <c r="E2">
-        <v>34</v>
+        <f>3.96+7.56</f>
+        <v>11.52</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>3.4</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">12.38/100*B3</f>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D17" si="1">87.62/100*B3</f>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E3">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>3.4</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>3.25</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.40235000000000004</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>2.8476500000000002</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3.3</v>
-      </c>
-      <c r="C6" s="19">
-        <f>3.8*3600/34000</f>
-        <v>0.40235294117647058</v>
-      </c>
-      <c r="D6" s="19">
-        <f>26.9*3600/34000</f>
-        <v>2.848235294117647</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3.75</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.46425000000000005</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.2857500000000002</v>
-      </c>
-      <c r="E7">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>3.4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E8">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3.4</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3.25</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.40235000000000004</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>2.8476500000000002</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>3.1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.38378000000000001</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>2.7162200000000003</v>
-      </c>
-      <c r="E11">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>3.4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E12">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>3.4</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E13">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>3.4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E14">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>3.4</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E15">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>3.2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.39616000000000007</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>2.8038400000000006</v>
-      </c>
-      <c r="E16">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>3.4</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.42092000000000002</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>2.9790800000000002</v>
-      </c>
-      <c r="E17">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
